--- a/files/CDS-API-Implementation-Guide-v2.0-Hazard-Log-v2.0.xlsx
+++ b/files/CDS-API-Implementation-Guide-v2.0-Hazard-Log-v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edfefc97787f2752/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{BCEC39BC-C264-4A1C-8917-768A578461E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87112F1D-822F-478F-93CB-8191AA0950B4}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{A071C1CA-566F-4995-8A85-8A91246D39A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F56DA6FD-9C13-4370-9290-F22AD5F31107}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12781,7 +12781,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>1139106</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>574324</xdr:rowOff>
+      <xdr:rowOff>460024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13290,7 +13290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -13411,7 +13411,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gAwU+IySEBb3zq9XrZuy1R96BfSHM3kc5vy+Nc+1QfTdadmhKknyMKD+18r5d37UdYXoMZdu/wWoufgm43avYQ==" saltValue="IPN2A6L3zZEOtphAzUGxpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C9:D9"/>
@@ -13428,7 +13427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -13795,7 +13794,6 @@
       <c r="D35" s="122"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KdfFRiZGEMGuAYNKnjOlw3/C29lTSgPsGT10Ot6tRy4i6NDmzf3Ytc2Oo5gyUiV2hODK0WGvwJIOhmNoLNeLHw==" saltValue="zBdm6carmXRvWetUwpTnMA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
@@ -13838,10 +13836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8537A58-3D44-466A-8864-590FEB7D98D3}">
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="N162" sqref="N162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -17968,7 +17966,7 @@
         <v>90</v>
       </c>
       <c r="N82" s="74" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="O82" s="74" t="s">
         <v>23</v>
@@ -18872,7 +18870,7 @@
         <v>132</v>
       </c>
       <c r="N100" s="74" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="O100" s="74" t="s">
         <v>25</v>
@@ -18972,7 +18970,7 @@
         <v>132</v>
       </c>
       <c r="N102" s="74" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="O102" s="74" t="s">
         <v>25</v>
@@ -19075,7 +19073,7 @@
         <v>132</v>
       </c>
       <c r="N104" s="74" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="O104" s="74" t="s">
         <v>29</v>
@@ -19215,8 +19213,8 @@
       <c r="M107" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="N107" s="73" t="s">
-        <v>89</v>
+      <c r="N107" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O107" s="74" t="s">
         <v>29</v>
@@ -19262,8 +19260,8 @@
       <c r="M108" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="N108" s="73" t="s">
-        <v>89</v>
+      <c r="N108" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O108" s="74" t="s">
         <v>29</v>
@@ -19309,8 +19307,8 @@
       <c r="M109" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="N109" s="73" t="s">
-        <v>89</v>
+      <c r="N109" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O109" s="74" t="s">
         <v>29</v>
@@ -19356,8 +19354,8 @@
       <c r="M110" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="N110" s="73" t="s">
-        <v>89</v>
+      <c r="N110" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O110" s="74" t="s">
         <v>29</v>
@@ -19404,7 +19402,7 @@
         <v>141</v>
       </c>
       <c r="N111" s="73" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="O111" s="74" t="s">
         <v>29</v>
@@ -19450,8 +19448,8 @@
       <c r="M112" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N112" s="73" t="s">
-        <v>89</v>
+      <c r="N112" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O112" s="74" t="s">
         <v>29</v>
@@ -19497,8 +19495,8 @@
       <c r="M113" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="N113" s="73" t="s">
-        <v>89</v>
+      <c r="N113" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O113" s="74" t="s">
         <v>29</v>
@@ -19544,8 +19542,8 @@
       <c r="M114" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="N114" s="73" t="s">
-        <v>89</v>
+      <c r="N114" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O114" s="74" t="s">
         <v>29</v>
@@ -19685,8 +19683,8 @@
       <c r="M117" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="N117" s="73" t="s">
-        <v>89</v>
+      <c r="N117" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O117" s="74" t="s">
         <v>29</v>
@@ -19732,8 +19730,8 @@
       <c r="M118" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N118" s="73" t="s">
-        <v>89</v>
+      <c r="N118" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O118" s="74" t="s">
         <v>29</v>
@@ -19779,8 +19777,8 @@
       <c r="M119" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N119" s="73" t="s">
-        <v>89</v>
+      <c r="N119" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O119" s="74" t="s">
         <v>29</v>
@@ -19826,8 +19824,8 @@
       <c r="M120" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N120" s="73" t="s">
-        <v>89</v>
+      <c r="N120" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O120" s="74" t="s">
         <v>29</v>
@@ -19873,8 +19871,8 @@
       <c r="M121" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N121" s="73" t="s">
-        <v>89</v>
+      <c r="N121" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O121" s="74" t="s">
         <v>29</v>
@@ -19920,8 +19918,8 @@
       <c r="M122" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N122" s="73" t="s">
-        <v>89</v>
+      <c r="N122" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O122" s="74" t="s">
         <v>29</v>
@@ -19967,8 +19965,8 @@
       <c r="M123" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N123" s="73" t="s">
-        <v>89</v>
+      <c r="N123" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O123" s="74" t="s">
         <v>29</v>
@@ -20014,8 +20012,8 @@
       <c r="M124" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="N124" s="73" t="s">
-        <v>89</v>
+      <c r="N124" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O124" s="74" t="s">
         <v>29</v>
@@ -20108,8 +20106,8 @@
       <c r="M126" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N126" s="73" t="s">
-        <v>89</v>
+      <c r="N126" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O126" s="74" t="s">
         <v>29</v>
@@ -20155,8 +20153,8 @@
       <c r="M127" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N127" s="73" t="s">
-        <v>89</v>
+      <c r="N127" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O127" s="74" t="s">
         <v>29</v>
@@ -20202,8 +20200,8 @@
       <c r="M128" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="N128" s="73" t="s">
-        <v>89</v>
+      <c r="N128" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O128" s="74" t="s">
         <v>29</v>
@@ -20249,8 +20247,8 @@
       <c r="M129" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="N129" s="73" t="s">
-        <v>89</v>
+      <c r="N129" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O129" s="74" t="s">
         <v>29</v>
@@ -20305,8 +20303,8 @@
       <c r="M130" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N130" s="73" t="s">
-        <v>89</v>
+      <c r="N130" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O130" s="74" t="s">
         <v>44</v>
@@ -20352,8 +20350,8 @@
       <c r="M131" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N131" s="73" t="s">
-        <v>89</v>
+      <c r="N131" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O131" s="74" t="s">
         <v>44</v>
@@ -20399,8 +20397,8 @@
       <c r="M132" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N132" s="73" t="s">
-        <v>89</v>
+      <c r="N132" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O132" s="74" t="s">
         <v>44</v>
@@ -20446,8 +20444,8 @@
       <c r="M133" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N133" s="73" t="s">
-        <v>89</v>
+      <c r="N133" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O133" s="74" t="s">
         <v>44</v>
@@ -20493,8 +20491,8 @@
       <c r="M134" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N134" s="73" t="s">
-        <v>89</v>
+      <c r="N134" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O134" s="74" t="s">
         <v>44</v>
@@ -20540,8 +20538,8 @@
       <c r="M135" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N135" s="73" t="s">
-        <v>89</v>
+      <c r="N135" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O135" s="74" t="s">
         <v>44</v>
@@ -20634,8 +20632,8 @@
       <c r="M137" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="N137" s="73" t="s">
-        <v>89</v>
+      <c r="N137" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O137" s="74" t="s">
         <v>25</v>
@@ -20681,8 +20679,8 @@
       <c r="M138" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N138" s="73" t="s">
-        <v>89</v>
+      <c r="N138" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O138" s="74" t="s">
         <v>25</v>
@@ -20775,8 +20773,8 @@
       <c r="M140" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="N140" s="73" t="s">
-        <v>89</v>
+      <c r="N140" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O140" s="74" t="s">
         <v>25</v>
@@ -20963,8 +20961,8 @@
       <c r="M144" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="N144" s="73" t="s">
-        <v>89</v>
+      <c r="N144" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O144" s="74" t="s">
         <v>25</v>
@@ -21010,8 +21008,8 @@
       <c r="M145" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N145" s="73" t="s">
-        <v>89</v>
+      <c r="N145" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O145" s="74" t="s">
         <v>25</v>
@@ -21113,8 +21111,8 @@
       <c r="M147" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="N147" s="73" t="s">
-        <v>89</v>
+      <c r="N147" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O147" s="74" t="s">
         <v>29</v>
@@ -21160,8 +21158,8 @@
       <c r="M148" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="N148" s="73" t="s">
-        <v>89</v>
+      <c r="N148" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O148" s="74" t="s">
         <v>29</v>
@@ -21207,8 +21205,8 @@
       <c r="M149" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N149" s="73" t="s">
-        <v>89</v>
+      <c r="N149" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O149" s="74" t="s">
         <v>29</v>
@@ -21254,8 +21252,8 @@
       <c r="M150" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="N150" s="73" t="s">
-        <v>89</v>
+      <c r="N150" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O150" s="74" t="s">
         <v>29</v>
@@ -21345,8 +21343,8 @@
       <c r="M152" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N152" s="73" t="s">
-        <v>89</v>
+      <c r="N152" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O152" s="74" t="s">
         <v>29</v>
@@ -21392,8 +21390,8 @@
       <c r="M153" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="N153" s="73" t="s">
-        <v>89</v>
+      <c r="N153" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O153" s="74" t="s">
         <v>29</v>
@@ -21439,8 +21437,8 @@
       <c r="M154" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="N154" s="73" t="s">
-        <v>89</v>
+      <c r="N154" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O154" s="74" t="s">
         <v>29</v>
@@ -21524,8 +21522,8 @@
       <c r="M156" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N156" s="73" t="s">
-        <v>89</v>
+      <c r="N156" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O156" s="74" t="s">
         <v>29</v>
@@ -21612,8 +21610,8 @@
       <c r="M158" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="N158" s="73" t="s">
-        <v>89</v>
+      <c r="N158" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O158" s="74" t="s">
         <v>29</v>
@@ -21706,8 +21704,8 @@
       <c r="M160" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="N160" s="73" t="s">
-        <v>89</v>
+      <c r="N160" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O160" s="74" t="s">
         <v>29</v>
@@ -21800,8 +21798,8 @@
       <c r="M162" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="N162" s="73" t="s">
-        <v>89</v>
+      <c r="N162" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="O162" s="74" t="s">
         <v>29</v>
@@ -21864,7 +21862,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gqriC5uV8IaZo9W7OS7+RaWSJiRMLlaZsJU75vrVnajOba8+oWSBeaIUdbIvhOgDTwH7in18ecz0WYqxqcSCyA==" saltValue="4CCI2xwSkvqm68J0eRwIkQ==" spinCount="100000" sheet="1" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3V9DO6++fuLJEspXyBnv14+1TzCYk72C+SXRhIC97C2dsAFBWtxiN4hsJVUZvzkVNpmFgHgk6NXRbhazw7Ak1A==" saltValue="YLIuImFMwAmAn2nv1PldGg==" spinCount="100000" sheet="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:R163" xr:uid="{30A72F90-80E9-41D5-8186-83E4C9555DB3}"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="I2:I18 I20:I22 I150:I151 I153:I163">
@@ -25508,55 +25506,6 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="e449ee01-db56-4fb0-9197-e60b4801baf3">NHSD-2020-1209412115-2644</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e449ee01-db56-4fb0-9197-e60b4801baf3">
-      <Url>https://hscic365.sharepoint.com/sites/NHSPathways/ClinicalTriagePlatform/_layouts/15/DocIdRedir.aspx?ID=NHSD-2020-1209412115-2644</Url>
-      <Description>NHSD-2020-1209412115-2644</Description>
-    </_dlc_DocIdUrl>
-    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2026-05-22T09:51:45+00:00</_dlc_ExpireDate>
-    <InformationAudience xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">NHS Digital</InformationAudience>
-    <SecurityClassification xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Official</SecurityClassification>
-    <InformationVersion xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <Summary xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <ApprovalDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2018-05-22T09:51:45+00:00</ApprovalDate>
-    <ApproverName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <i8502cb9d1b74c4f9e1ea45824336350 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </i8502cb9d1b74c4f9e1ea45824336350>
-    <SecurityDescriptor xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <InformationSource xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
-    <InformationStatus xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Draft</InformationStatus>
-    <AuthoredDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2018-05-22T09:51:45+00:00</AuthoredDate>
-    <TaxCatchAll xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <AuthorName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AuthorName>
-    <e076e489fa624670a6d5030aa6510568 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Document</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6113f30c-7b54-4978-b917-a373efb61b62</TermId>
-        </TermInfo>
-      </Terms>
-    </e076e489fa624670a6d5030aa6510568>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -25564,7 +25513,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -25669,7 +25618,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="NHSD Portfolio Document (8 years)" ma:contentTypeID="0x010100CE61D9DC7AFC6844B595FD0A55B75DF700FABECB496E49E848B4A18E17E14A64D8" ma:contentTypeVersion="93" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="de7ef1449e17e82c5d7162ab1abc18df">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xmlns:ns3="e449ee01-db56-4fb0-9197-e60b4801baf3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e053c8a828f46b1719d90302114b4e1" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25980,7 +25929,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <p:Policy xmlns:p="office.server.policy" id="" local="true">
   <p:Name>NHSD Portfolio Document (8 years)</p:Name>
@@ -26021,33 +25970,56 @@
 </p:Policy>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6AC58FB-2730-4052-8F12-52DE0FCC16F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="bb72b7f4-c981-47a4-a26e-043e4b78ebf3" ContentTypeId="0x010100CE61D9DC7AFC6844B595FD0A55B75DF7" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2236A7-8450-4401-8F1A-48B7D29027B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e449ee01-db56-4fb0-9197-e60b4801baf3"/>
-    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="e449ee01-db56-4fb0-9197-e60b4801baf3">NHSD-2020-1209412115-2644</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e449ee01-db56-4fb0-9197-e60b4801baf3">
+      <Url>https://hscic365.sharepoint.com/sites/NHSPathways/ClinicalTriagePlatform/_layouts/15/DocIdRedir.aspx?ID=NHSD-2020-1209412115-2644</Url>
+      <Description>NHSD-2020-1209412115-2644</Description>
+    </_dlc_DocIdUrl>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2026-05-22T09:51:45+00:00</_dlc_ExpireDate>
+    <InformationAudience xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">NHS Digital</InformationAudience>
+    <SecurityClassification xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Official</SecurityClassification>
+    <InformationVersion xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <Summary xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <ApprovalDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2018-05-22T09:51:45+00:00</ApprovalDate>
+    <ApproverName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <i8502cb9d1b74c4f9e1ea45824336350 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </i8502cb9d1b74c4f9e1ea45824336350>
+    <SecurityDescriptor xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <InformationSource xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd" xsi:nil="true"/>
+    <InformationStatus xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">Draft</InformationStatus>
+    <AuthoredDate xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">2018-05-22T09:51:45+00:00</AuthoredDate>
+    <TaxCatchAll xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <AuthorName xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AuthorName>
+    <e076e489fa624670a6d5030aa6510568 xmlns="5668c8bc-6c30-45e9-80ca-5109d4270dfd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Document</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6113f30c-7b54-4978-b917-a373efb61b62</TermId>
+        </TermInfo>
+      </Terms>
+    </e076e489fa624670a6d5030aa6510568>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42AA8585-8391-4010-8485-FC500C2A4F69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -26055,7 +26027,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6030DF3-05E0-4E10-BAD4-DFD11D158FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -26063,7 +26035,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4448E5B5-3A8F-4C05-A99F-7EAB16E58EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26083,10 +26055,36 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB540515-0B88-49AB-BAB2-40C6BDED62C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="office.server.policy"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6AC58FB-2730-4052-8F12-52DE0FCC16F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2236A7-8450-4401-8F1A-48B7D29027B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e449ee01-db56-4fb0-9197-e60b4801baf3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5668c8bc-6c30-45e9-80ca-5109d4270dfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>